--- a/doc/excel/统战/[sample_dpNpr]党外代表人士信息录入样表.xlsx
+++ b/doc/excel/统战/[sample_dpNpr]党外代表人士信息录入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F45A79-5159-4C9B-A2BE-A8C29CBDD708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1C97D1-63BA-4848-98E1-0516BE9B0158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="3315" windowWidth="23355" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="5940" windowWidth="28800" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,26 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加工作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所学专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,27 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.12.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京xxx大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +106,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -196,11 +148,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,16 +165,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,438 +486,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5:I16"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2"/>
+    <col min="1" max="1" width="14.375" style="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="5" width="15.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="2"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>11112018028</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>11112018028</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="C5"/>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="D5:I16"/>
+    <mergeCell ref="C5:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RM22:RM23 ABI22:ABI23 ALE22:ALE23 AVA22:AVA23 BEW22:BEW23 BOS22:BOS23 BYO22:BYO23 CIK22:CIK23 CSG22:CSG23 DCC22:DCC23 DLY22:DLY23 DVU22:DVU23 EFQ22:EFQ23 EPM22:EPM23 EZI22:EZI23 FJE22:FJE23 FTA22:FTA23 GCW22:GCW23 GMS22:GMS23 GWO22:GWO23 HGK22:HGK23 HQG22:HQG23 IAC22:IAC23 IJY22:IJY23 ITU22:ITU23 JDQ22:JDQ23 JNM22:JNM23 JXI22:JXI23 KHE22:KHE23 KRA22:KRA23 LAW22:LAW23 LKS22:LKS23 LUO22:LUO23 MEK22:MEK23 MOG22:MOG23 MYC22:MYC23 NHY22:NHY23 NRU22:NRU23 OBQ22:OBQ23 OLM22:OLM23 OVI22:OVI23 PFE22:PFE23 PPA22:PPA23 PYW22:PYW23 QIS22:QIS23 QSO22:QSO23 RCK22:RCK23 RMG22:RMG23 RWC22:RWC23 SFY22:SFY23 SPU22:SPU23 SZQ22:SZQ23 TJM22:TJM23 TTI22:TTI23 UDE22:UDE23 UNA22:UNA23 UWW22:UWW23 VGS22:VGS23 VQO22:VQO23 WAK22:WAK23 WKG22:WKG23 WUC22:WUC23 HQ22:HQ23 WJW7:WJW20 WAA7:WAA20 VQE7:VQE20 VGI7:VGI20 UWM7:UWM20 UMQ7:UMQ20 UCU7:UCU20 TSY7:TSY20 TJC7:TJC20 SZG7:SZG20 SPK7:SPK20 SFO7:SFO20 RVS7:RVS20 RLW7:RLW20 RCA7:RCA20 QSE7:QSE20 QII7:QII20 PYM7:PYM20 POQ7:POQ20 PEU7:PEU20 OUY7:OUY20 OLC7:OLC20 OBG7:OBG20 NRK7:NRK20 NHO7:NHO20 MXS7:MXS20 MNW7:MNW20 MEA7:MEA20 LUE7:LUE20 LKI7:LKI20 LAM7:LAM20 KQQ7:KQQ20 KGU7:KGU20 JWY7:JWY20 JNC7:JNC20 JDG7:JDG20 ITK7:ITK20 IJO7:IJO20 HZS7:HZS20 HPW7:HPW20 HGA7:HGA20 GWE7:GWE20 GMI7:GMI20 GCM7:GCM20 FSQ7:FSQ20 FIU7:FIU20 EYY7:EYY20 EPC7:EPC20 EFG7:EFG20 DVK7:DVK20 DLO7:DLO20 DBS7:DBS20 CRW7:CRW20 CIA7:CIA20 BYE7:BYE20 BOI7:BOI20 BEM7:BEM20 AUQ7:AUQ20 AKU7:AKU20 AAY7:AAY20 RC7:RC20 HG7:HG20 WTS7:WTS20 WTX6 HL6 RH6 ABD6 AKZ6 AUV6 BER6 BON6 BYJ6 CIF6 CSB6 DBX6 DLT6 DVP6 EFL6 EPH6 EZD6 FIZ6 FSV6 GCR6 GMN6 GWJ6 HGF6 HQB6 HZX6 IJT6 ITP6 JDL6 JNH6 JXD6 KGZ6 KQV6 LAR6 LKN6 LUJ6 MEF6 MOB6 MXX6 NHT6 NRP6 OBL6 OLH6 OVD6 PEZ6 POV6 PYR6 QIN6 QSJ6 RCF6 RMB6 RVX6 SFT6 SPP6 SZL6 TJH6 TTD6 UCZ6 UMV6 UWR6 VGN6 VQJ6 WAF6 WKB6 WKF2 WKG3:WKG5 WAJ2 WAK3:WAK5 VQN2 VQO3:VQO5 VGR2 VGS3:VGS5 UWV2 UWW3:UWW5 UMZ2 UNA3:UNA5 UDD2 UDE3:UDE5 TTH2 TTI3:TTI5 TJL2 TJM3:TJM5 SZP2 SZQ3:SZQ5 SPT2 SPU3:SPU5 SFX2 SFY3:SFY5 RWB2 RWC3:RWC5 RMF2 RMG3:RMG5 RCJ2 RCK3:RCK5 QSN2 QSO3:QSO5 QIR2 QIS3:QIS5 PYV2 PYW3:PYW5 POZ2 PPA3:PPA5 PFD2 PFE3:PFE5 OVH2 OVI3:OVI5 OLL2 OLM3:OLM5 OBP2 OBQ3:OBQ5 NRT2 NRU3:NRU5 NHX2 NHY3:NHY5 MYB2 MYC3:MYC5 MOF2 MOG3:MOG5 MEJ2 MEK3:MEK5 LUN2 LUO3:LUO5 LKR2 LKS3:LKS5 LAV2 LAW3:LAW5 KQZ2 KRA3:KRA5 KHD2 KHE3:KHE5 JXH2 JXI3:JXI5 JNL2 JNM3:JNM5 JDP2 JDQ3:JDQ5 ITT2 ITU3:ITU5 IJX2 IJY3:IJY5 IAB2 IAC3:IAC5 HQF2 HQG3:HQG5 HGJ2 HGK3:HGK5 GWN2 GWO3:GWO5 GMR2 GMS3:GMS5 GCV2 GCW3:GCW5 FSZ2 FTA3:FTA5 FJD2 FJE3:FJE5 EZH2 EZI3:EZI5 EPL2 EPM3:EPM5 EFP2 EFQ3:EFQ5 DVT2 DVU3:DVU5 DLX2 DLY3:DLY5 DCB2 DCC3:DCC5 CSF2 CSG3:CSG5 CIJ2 CIK3:CIK5 BYN2 BYO3:BYO5 BOR2 BOS3:BOS5 BEV2 BEW3:BEW5 AUZ2 AVA3:AVA5 ALD2 ALE3:ALE5 ABH2 ABI3:ABI5 RL2 RM3:RM5 HP2 HQ3:HQ5 WUB2 WUC3:WUC5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RH22:RH23 ABD22:ABD23 AKZ22:AKZ23 AUV22:AUV23 BER22:BER23 BON22:BON23 BYJ22:BYJ23 CIF22:CIF23 CSB22:CSB23 DBX22:DBX23 DLT22:DLT23 DVP22:DVP23 EFL22:EFL23 EPH22:EPH23 EZD22:EZD23 FIZ22:FIZ23 FSV22:FSV23 GCR22:GCR23 GMN22:GMN23 GWJ22:GWJ23 HGF22:HGF23 HQB22:HQB23 HZX22:HZX23 IJT22:IJT23 ITP22:ITP23 JDL22:JDL23 JNH22:JNH23 JXD22:JXD23 KGZ22:KGZ23 KQV22:KQV23 LAR22:LAR23 LKN22:LKN23 LUJ22:LUJ23 MEF22:MEF23 MOB22:MOB23 MXX22:MXX23 NHT22:NHT23 NRP22:NRP23 OBL22:OBL23 OLH22:OLH23 OVD22:OVD23 PEZ22:PEZ23 POV22:POV23 PYR22:PYR23 QIN22:QIN23 QSJ22:QSJ23 RCF22:RCF23 RMB22:RMB23 RVX22:RVX23 SFT22:SFT23 SPP22:SPP23 SZL22:SZL23 TJH22:TJH23 TTD22:TTD23 UCZ22:UCZ23 UMV22:UMV23 UWR22:UWR23 VGN22:VGN23 VQJ22:VQJ23 WAF22:WAF23 WKB22:WKB23 WTX22:WTX23 HL22:HL23 WJR7:WJR20 VZV7:VZV20 VPZ7:VPZ20 VGD7:VGD20 UWH7:UWH20 UML7:UML20 UCP7:UCP20 TST7:TST20 TIX7:TIX20 SZB7:SZB20 SPF7:SPF20 SFJ7:SFJ20 RVN7:RVN20 RLR7:RLR20 RBV7:RBV20 QRZ7:QRZ20 QID7:QID20 PYH7:PYH20 POL7:POL20 PEP7:PEP20 OUT7:OUT20 OKX7:OKX20 OBB7:OBB20 NRF7:NRF20 NHJ7:NHJ20 MXN7:MXN20 MNR7:MNR20 MDV7:MDV20 LTZ7:LTZ20 LKD7:LKD20 LAH7:LAH20 KQL7:KQL20 KGP7:KGP20 JWT7:JWT20 JMX7:JMX20 JDB7:JDB20 ITF7:ITF20 IJJ7:IJJ20 HZN7:HZN20 HPR7:HPR20 HFV7:HFV20 GVZ7:GVZ20 GMD7:GMD20 GCH7:GCH20 FSL7:FSL20 FIP7:FIP20 EYT7:EYT20 EOX7:EOX20 EFB7:EFB20 DVF7:DVF20 DLJ7:DLJ20 DBN7:DBN20 CRR7:CRR20 CHV7:CHV20 BXZ7:BXZ20 BOD7:BOD20 BEH7:BEH20 AUL7:AUL20 AKP7:AKP20 AAT7:AAT20 QX7:QX20 HB7:HB20 WTN7:WTN20 WTS6 HG6 RC6 AAY6 AKU6 AUQ6 BEM6 BOI6 BYE6 CIA6 CRW6 DBS6 DLO6 DVK6 EFG6 EPC6 EYY6 FIU6 FSQ6 GCM6 GMI6 GWE6 HGA6 HPW6 HZS6 IJO6 ITK6 JDG6 JNC6 JWY6 KGU6 KQQ6 LAM6 LKI6 LUE6 MEA6 MNW6 MXS6 NHO6 NRK6 OBG6 OLC6 OUY6 PEU6 POQ6 PYM6 QII6 QSE6 RCA6 RLW6 RVS6 SFO6 SPK6 SZG6 TJC6 TSY6 UCU6 UMQ6 UWM6 VGI6 VQE6 WAA6 WJW6 WKA2 WKB3:WKB5 WAE2 WAF3:WAF5 VQI2 VQJ3:VQJ5 VGM2 VGN3:VGN5 UWQ2 UWR3:UWR5 UMU2 UMV3:UMV5 UCY2 UCZ3:UCZ5 TTC2 TTD3:TTD5 TJG2 TJH3:TJH5 SZK2 SZL3:SZL5 SPO2 SPP3:SPP5 SFS2 SFT3:SFT5 RVW2 RVX3:RVX5 RMA2 RMB3:RMB5 RCE2 RCF3:RCF5 QSI2 QSJ3:QSJ5 QIM2 QIN3:QIN5 PYQ2 PYR3:PYR5 POU2 POV3:POV5 PEY2 PEZ3:PEZ5 OVC2 OVD3:OVD5 OLG2 OLH3:OLH5 OBK2 OBL3:OBL5 NRO2 NRP3:NRP5 NHS2 NHT3:NHT5 MXW2 MXX3:MXX5 MOA2 MOB3:MOB5 MEE2 MEF3:MEF5 LUI2 LUJ3:LUJ5 LKM2 LKN3:LKN5 LAQ2 LAR3:LAR5 KQU2 KQV3:KQV5 KGY2 KGZ3:KGZ5 JXC2 JXD3:JXD5 JNG2 JNH3:JNH5 JDK2 JDL3:JDL5 ITO2 ITP3:ITP5 IJS2 IJT3:IJT5 HZW2 HZX3:HZX5 HQA2 HQB3:HQB5 HGE2 HGF3:HGF5 GWI2 GWJ3:GWJ5 GMM2 GMN3:GMN5 GCQ2 GCR3:GCR5 FSU2 FSV3:FSV5 FIY2 FIZ3:FIZ5 EZC2 EZD3:EZD5 EPG2 EPH3:EPH5 EFK2 EFL3:EFL5 DVO2 DVP3:DVP5 DLS2 DLT3:DLT5 DBW2 DBX3:DBX5 CSA2 CSB3:CSB5 CIE2 CIF3:CIF5 BYI2 BYJ3:BYJ5 BOM2 BON3:BON5 BEQ2 BER3:BER5 AUU2 AUV3:AUV5 AKY2 AKZ3:AKZ5 ABC2 ABD3:ABD5 RG2 RH3:RH5 HK2 HL3:HL5 WTW2 WTX3:WTX5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"申请入党人员,入党积极分子,发展对象"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{61AD7ED5-215D-4B6B-9153-BBD46ADFCFD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E4 E17:E1048576" xr:uid="{61AD7ED5-215D-4B6B-9153-BBD46ADFCFD6}">
       <formula1>"党派中央,省级,支委"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4 I17:I1048576" xr:uid="{662CC371-8634-4AC4-8918-E945565395AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D17:D1048576" xr:uid="{662CC371-8634-4AC4-8918-E945565395AB}">
       <formula1>"各级党外人大代表、政协委员、政府参事等,党外中层干部,党派基层组织和统战团体负责人,党外高层次人才"</formula1>
     </dataValidation>
   </dataValidations>
